--- a/N17/docs/equation.xlsx
+++ b/N17/docs/equation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>x</t>
   </si>
@@ -34,6 +34,36 @@
   </si>
   <si>
     <t>12weeks x&gt;=1 dead</t>
+  </si>
+  <si>
+    <t>(10+2.7*A4)*EXP((A4*(-0.09)))</t>
+  </si>
+  <si>
+    <t>atribuets</t>
+  </si>
+  <si>
+    <t>strenght</t>
+  </si>
+  <si>
+    <t>helth</t>
+  </si>
+  <si>
+    <t>defence</t>
+  </si>
+  <si>
+    <t>agretion</t>
+  </si>
+  <si>
+    <t>fretility</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>10-100</t>
+  </si>
+  <si>
+    <t>0-100</t>
   </si>
 </sst>
 </file>
@@ -372,18 +402,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C7"/>
+  <dimension ref="A3:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -391,7 +423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -403,7 +435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -415,7 +447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>21</v>
       </c>
@@ -426,8 +458,11 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>84</v>
       </c>
@@ -437,6 +472,51 @@
       </c>
       <c r="C7" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
